--- a/experiment result cnn/64_0.4_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/64_0.4_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01783975171957751</v>
+        <v>0.001281563901779965</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.032032491810439</v>
+        <v>0.001604878655088508</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02826076004779202</v>
+        <v>0.002808559402769478</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02940459642923902</v>
+        <v>0.001261665991190137</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0266432830614982</v>
+        <v>0.002826533314903988</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04250584322694536</v>
+        <v>0.01606718179738299</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0286833214070062</v>
+        <v>0.00415804731065717</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02251218541643403</v>
+        <v>0.00329115010079588</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02654811036789988</v>
+        <v>0.0008405759990075883</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04749752775392231</v>
+        <v>0.006455360783867853</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02690626984170549</v>
+        <v>0.001283843860201506</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04461596202400332</v>
+        <v>0.003231732041201508</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03290713441163872</v>
+        <v>0.001081123994586981</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05609120993806973</v>
+        <v>0.0001601279998358976</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02154552083296083</v>
+        <v>0.001122307944715181</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03269117216572419</v>
+        <v>0.001282059832575152</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04929282483041346</v>
+        <v>0.0004002079998453994</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02440949663753253</v>
+        <v>0.002112427240432323</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02132118344609188</v>
+        <v>0.01220435247233174</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03102210990555769</v>
+        <v>0.001722903921110992</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02384252374848924</v>
+        <v>0.0003001299998998232</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01960561408584511</v>
+        <v>0.0001800459999928359</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04371850940625891</v>
+        <v>0.001422005975581154</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01640604404144536</v>
+        <v>0.001461945753248684</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01680113801816696</v>
+        <v>0.0008011479904781517</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03421286279876912</v>
+        <v>0.02168268879503176</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01925506686413441</v>
+        <v>0.001100929978284979</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03023619248534417</v>
+        <v>0.007024690847109656</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02034228661851122</v>
+        <v>0.005017173915493317</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03956449927386664</v>
+        <v>0.0009613518745231577</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01689795548168752</v>
+        <v>0.001748206103943893</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03296249815958691</v>
+        <v>0.002232204703820507</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0434605352909864</v>
+        <v>0.004345379534496882</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02950573601912743</v>
+        <v>0.01145156542944816</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03307124965692245</v>
+        <v>0.003317839833704105</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03423591470393427</v>
+        <v>0.0003400939991805868</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01845496325963996</v>
+        <v>0.002065145398816897</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05313671524785122</v>
+        <v>0.000860985994467767</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01186174814843485</v>
+        <v>0.009775240070032193</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03899101315164223</v>
+        <v>0.005382953592359467</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03176988203861782</v>
+        <v>0.004494073862316418</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01687511897599974</v>
+        <v>0.0003601359927158247</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01094870321393684</v>
+        <v>0.003703113320520818</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01759380758204121</v>
+        <v>0.001101713922234652</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01590844063713103</v>
+        <v>0.02366877212881234</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03810569603591833</v>
+        <v>0.001982513949102946</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03833671470966122</v>
+        <v>0.002545589681890321</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02258229664417625</v>
+        <v>0.005519926827132912</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04467972903930968</v>
+        <v>0.0003001099999434953</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0283229571781083</v>
+        <v>0.002024449463876038</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02696283329893219</v>
+        <v>0.0300500803336965</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02925359482137587</v>
+        <v>0.08152421784839065</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009211375104413212</v>
+        <v>0.001221397782736389</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01619677453921756</v>
+        <v>0.002051709554316503</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03029427086125163</v>
+        <v>0.004264823988527094</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02619940133012361</v>
+        <v>0.04717760777205842</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02875972338767665</v>
+        <v>0.02645387553056845</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03166484767054302</v>
+        <v>0.05075679162716851</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04535987259210086</v>
+        <v>0.009156481681103272</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.022648615205659</v>
+        <v>0.005956866288914321</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.008458392126376368</v>
+        <v>0.0145036137509124</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01725765987444899</v>
+        <v>0.004053310798565599</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02884367372501727</v>
+        <v>0.005315390645593047</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02577743520707626</v>
+        <v>0.06409783368483112</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0239376119506702</v>
+        <v>0.02282975687841192</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02132600715389376</v>
+        <v>0.1655199884306322</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03562215655056274</v>
+        <v>0.02278398566406372</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0216002151126236</v>
+        <v>0.02878252327394853</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01564203932494336</v>
+        <v>0.007197589821794502</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02467145527380123</v>
+        <v>0.04881502287359039</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0258230943289122</v>
+        <v>0.02987105332575361</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01917907896063075</v>
+        <v>0.02526559025829169</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02883041571096087</v>
+        <v>0.03149242919921253</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02021931442929174</v>
+        <v>0.05704563332711705</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01303287751612925</v>
+        <v>0.02992849318870299</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02986567117221094</v>
+        <v>0.06244789943229249</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0235437730232224</v>
+        <v>0.005947798750788635</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02415893189818608</v>
+        <v>0.0610300574654018</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02839099964224854</v>
+        <v>0.009612607000371648</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02119648343110877</v>
+        <v>0.03645906614028261</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01522534287049178</v>
+        <v>0.0131828062115488</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06431276787592621</v>
+        <v>0.0271515942282969</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02111915296533713</v>
+        <v>0.005535549503526993</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.04055689569036958</v>
+        <v>0.0009413616678856839</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.04159801276428716</v>
+        <v>0.08262171307008412</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0308787179979471</v>
+        <v>0.003267709186610952</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.05014014691903721</v>
+        <v>0.01553116739613617</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.04485861065602002</v>
+        <v>0.006661430367979402</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0177921959064628</v>
+        <v>0.01417054074456993</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03324823711393983</v>
+        <v>0.01145693186330417</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06183328778519485</v>
+        <v>0.05538893672013107</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02900539318020969</v>
+        <v>0.04928649001279657</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03709492037781868</v>
+        <v>0.005078521399129962</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02801397734668835</v>
+        <v>0.04884664324090984</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01828512445976295</v>
+        <v>0.009102136338026545</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0236850307594876</v>
+        <v>0.07965748871925279</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02308693756189591</v>
+        <v>0.01284244994108552</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02604004138493247</v>
+        <v>0.1197042824466877</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03785624993868966</v>
+        <v>0.03829047877948963</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02046634789296872</v>
+        <v>0.2888929665282403</v>
       </c>
     </row>
   </sheetData>
